--- a/data/trans_dic/P25A_2_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A_2_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por hipertensión/presión arterial alta</t>
+          <t>Población con limitación por hipertensión/presión arterial alta (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 14,2</t>
+          <t>1,56; 18,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 13,75</t>
+          <t>1,27; 14,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 9,65</t>
+          <t>0,0; 10,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,36</t>
+          <t>1,35; 17,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,64</t>
+          <t>1,95; 18,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,16</t>
+          <t>0,0; 13,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 10,13</t>
+          <t>0,0; 16,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,28</t>
+          <t>1,04; 9,06</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 14,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,61</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 13,18</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,56</t>
+          <t>0,52; 5,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,08</t>
+          <t>0,0; 3,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,62; 5,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,21</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 7,96</t>
+          <t>0,43; 4,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,67</t>
+          <t>0,92; 5,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,05</t>
+          <t>1,1; 6,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,43</t>
+          <t>0,52; 3,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,89</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 2,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 4,9</t>
         </is>
       </c>
     </row>
@@ -852,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -862,37 +947,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,51</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,16</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,27; 2,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,94</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 4,84</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 2,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,01</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 5,25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 1,77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 4,24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 3,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 5,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 2,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 2,97</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 2,22</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 4,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por hipertensión/presión arterial alta (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9935</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5435</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12710</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8867</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3284</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9935</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14301</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5610</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22720</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2005; 23969</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1307; 14730</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12278</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2407; 31580</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2224; 20555</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16833</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 35720</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2794; 24362</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6291; 30721</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17882</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8693; 51606</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8183</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3702</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13033</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6248</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9132</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13944</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12476</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9950</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9132</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26977</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2223; 24021</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13276</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3191; 29432</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15076</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1633; 16377</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3443; 19352</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5420; 29976</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4591; 28284</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3660; 21786</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3406; 18850</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12806; 49408</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4707</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4119</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2298</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3748</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6729</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15170</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9110</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15349</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12295</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14827</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10420</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13241</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2060; 19057</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14106</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11716</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2025; 17561</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22825</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9137</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4137</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>29861</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6591</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19383</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14353</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26565</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29416</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>28520</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18490</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>56426</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10943; 43114</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3442; 20202</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15845</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14734; 54808</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2122; 18141</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9361; 35580</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5877; 29428</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13269; 55778</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17135; 53878</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15887; 47421</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>9105; 35765</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>33956; 89634</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
